--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56731.42759041634</v>
+        <v>11276794.94606317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56731.42759041634</v>
+        <v>11276794.94606317</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.9347585188342</v>
+        <v>44636.71790575806</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.9347585188342</v>
+        <v>44636.71790575806</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189772175.21437</v>
+        <v>49394487.53433549</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10536.83189208765</v>
+        <v>1184576.807640711</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19743.98173542145</v>
+        <v>2160594.013898471</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28951.13157875526</v>
+        <v>3136611.220156233</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38184.85013956685</v>
+        <v>4112628.426413995</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47418.56870037845</v>
+        <v>5088645.632671757</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56651.63372230939</v>
+        <v>6064625.420098938</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65884.97002453046</v>
+        <v>7040642.626356695</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75118.1094376644</v>
+        <v>8016659.832614453</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84351.52746743098</v>
+        <v>8992677.038872208</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93584.86376965197</v>
+        <v>9968694.245129967</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102818.200071873</v>
+        <v>10944711.45138773</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112051.536374094</v>
+        <v>11920728.6576455</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121284.8726763149</v>
+        <v>12896745.86390327</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130536.7249592186</v>
+        <v>13864366.89790938</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139802.5974694438</v>
+        <v>14833465.41289175</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>388</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
